--- a/Experiments/Figure 6/3-7-2024 2744 4682 plating/3-7-2024 Plating.xlsx
+++ b/Experiments/Figure 6/3-7-2024 2744 4682 plating/3-7-2024 Plating.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\Documents\Helena\Duke\You Lab\Projects\Dosing Project\Experiments\2024 Population Composition\3-7-2024 2744 4682 plating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE80E2E-A659-4BD3-996C-9F995679A751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB9F383-CC62-48C1-AC3F-3F01FC50D670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{913E35F3-A054-4690-A30A-1DF2F3FCA5B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="51">
   <si>
     <t>cfu/mL</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Strain</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>SEM</t>
   </si>
 </sst>
 </file>
@@ -8658,7 +8664,7 @@
   <dimension ref="A1:AX163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA32" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO48" sqref="AO48"/>
+      <selection activeCell="AM58" sqref="AM44:AM58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13857,6 +13863,12 @@
       <c r="AK43" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AL43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM43" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
@@ -13959,6 +13971,9 @@
       <c r="AK44" s="1">
         <v>0.93305439330543938</v>
       </c>
+      <c r="AM44" s="1">
+        <v>6.5219429117914285E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
@@ -14073,6 +14088,9 @@
       <c r="AK45" s="1">
         <v>0</v>
       </c>
+      <c r="AM45" s="1">
+        <v>0.14629795472825119</v>
+      </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
@@ -14175,6 +14193,9 @@
       <c r="AK46" s="1">
         <v>0</v>
       </c>
+      <c r="AM46" s="1">
+        <v>3.0413194889743971E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
@@ -14293,6 +14314,14 @@
         <f>1-AI47</f>
         <v>0.53830062390373667</v>
       </c>
+      <c r="AL47" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM6:AM8)</f>
+        <v>3.9103277855894805E-2</v>
+      </c>
+      <c r="AM47" s="1">
+        <f>AL47/3</f>
+        <v>1.3034425951964934E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
@@ -14399,8 +14428,16 @@
         <f t="shared" ref="AK48:AK58" si="28">1-AI48</f>
         <v>0.36779082321187584</v>
       </c>
+      <c r="AL48" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM9:AM11)</f>
+        <v>6.2461072580597965E-3</v>
+      </c>
+      <c r="AM48" s="1">
+        <f t="shared" ref="AM48:AM58" si="29">AL48/3</f>
+        <v>2.0820357526865987E-3</v>
+      </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>24</v>
       </c>
@@ -14517,8 +14554,16 @@
         <f t="shared" si="28"/>
         <v>0.28561187916026631</v>
       </c>
+      <c r="AL49" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM12,AM17,AM22)</f>
+        <v>1.8517844054469167E-2</v>
+      </c>
+      <c r="AM49" s="1">
+        <f t="shared" si="29"/>
+        <v>6.1726146848230558E-3</v>
+      </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>24</v>
       </c>
@@ -14608,7 +14653,7 @@
         <v>0</v>
       </c>
       <c r="AH50">
-        <f t="shared" ref="AH50:AH53" si="29">_xlfn.AGGREGATE(1, 6, AI13,AI18,AI23)</f>
+        <f t="shared" ref="AH50:AH53" si="30">_xlfn.AGGREGATE(1, 6, AI13,AI18,AI23)</f>
         <v>963333333.33333337</v>
       </c>
       <c r="AI50" s="3">
@@ -14623,8 +14668,16 @@
         <f t="shared" si="28"/>
         <v>0.75656081892460925</v>
       </c>
+      <c r="AL50" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM13,AM18,AM23)</f>
+        <v>0.14790947877880942</v>
+      </c>
+      <c r="AM50" s="1">
+        <f t="shared" si="29"/>
+        <v>4.930315959293647E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>24</v>
       </c>
@@ -14726,7 +14779,7 @@
         <v>0</v>
       </c>
       <c r="AH51">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>540000000</v>
       </c>
       <c r="AI51" s="3">
@@ -14741,8 +14794,16 @@
         <f t="shared" si="28"/>
         <v>3.9621143697846528E-2</v>
       </c>
+      <c r="AL51" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM14,AM19,AM24)</f>
+        <v>1.2103729423902905E-3</v>
+      </c>
+      <c r="AM51" s="1">
+        <f t="shared" si="29"/>
+        <v>4.0345764746343017E-4</v>
+      </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>24</v>
       </c>
@@ -14832,7 +14893,7 @@
         <v>2</v>
       </c>
       <c r="AH52">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>106500000</v>
       </c>
       <c r="AI52" s="3">
@@ -14847,8 +14908,16 @@
         <f t="shared" si="28"/>
         <v>0.61602154224881889</v>
       </c>
+      <c r="AL52" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM15,AM20,AM25)</f>
+        <v>4.6548854699110659E-2</v>
+      </c>
+      <c r="AM52" s="1">
+        <f t="shared" si="29"/>
+        <v>1.5516284899703553E-2</v>
+      </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>24</v>
       </c>
@@ -14950,7 +15019,7 @@
         <v>4</v>
       </c>
       <c r="AH53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>100000000</v>
       </c>
       <c r="AI53" s="3">
@@ -14965,8 +15034,16 @@
         <f t="shared" si="28"/>
         <v>0.34492262026297482</v>
       </c>
+      <c r="AL53" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM16,AM21,AM26)</f>
+        <v>0.18221324968569597</v>
+      </c>
+      <c r="AM53" s="1">
+        <f t="shared" si="29"/>
+        <v>6.0737749895231986E-2</v>
+      </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>24</v>
       </c>
@@ -15071,8 +15148,16 @@
         <f t="shared" si="28"/>
         <v>3.6361537883424E-2</v>
       </c>
+      <c r="AL54" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM27,AM32,AM37)</f>
+        <v>5.6063870952665056E-3</v>
+      </c>
+      <c r="AM54" s="1">
+        <f t="shared" si="29"/>
+        <v>1.8687956984221685E-3</v>
+      </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>24</v>
       </c>
@@ -15174,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="AH55">
-        <f t="shared" ref="AH55:AH58" si="30">_xlfn.AGGREGATE(1, 6, AI28,AI33,AI38)</f>
+        <f t="shared" ref="AH55:AH58" si="31">_xlfn.AGGREGATE(1, 6, AI28,AI33,AI38)</f>
         <v>1415000000</v>
       </c>
       <c r="AI55" s="3">
@@ -15189,8 +15274,16 @@
         <f t="shared" si="28"/>
         <v>0.50012395171747781</v>
       </c>
+      <c r="AL55" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM28,AM33,AM38)</f>
+        <v>0.10883180277715432</v>
+      </c>
+      <c r="AM55" s="1">
+        <f t="shared" si="29"/>
+        <v>3.6277267592384775E-2</v>
+      </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>24</v>
       </c>
@@ -15280,7 +15373,7 @@
         <v>0</v>
       </c>
       <c r="AH56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1258333333.3333333</v>
       </c>
       <c r="AI56" s="3">
@@ -15295,8 +15388,16 @@
         <f t="shared" si="28"/>
         <v>0.31582348002694582</v>
       </c>
+      <c r="AL56" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM29,AM34,AM39)</f>
+        <v>6.2616054004323768E-2</v>
+      </c>
+      <c r="AM56" s="1">
+        <f t="shared" si="29"/>
+        <v>2.0872018001441256E-2</v>
+      </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>24</v>
       </c>
@@ -15398,7 +15499,7 @@
         <v>2</v>
       </c>
       <c r="AH57">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1211666666.6666667</v>
       </c>
       <c r="AI57" s="3">
@@ -15413,8 +15514,16 @@
         <f t="shared" si="28"/>
         <v>4.6141154774093085E-4</v>
       </c>
+      <c r="AL57" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM30,AM35,AM40)</f>
+        <v>1.9053163028333715E-4</v>
+      </c>
+      <c r="AM57" s="1">
+        <f>AL57/3</f>
+        <v>6.3510543427779047E-5</v>
+      </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>24</v>
       </c>
@@ -15504,7 +15613,7 @@
         <v>4</v>
       </c>
       <c r="AH58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1060000000</v>
       </c>
       <c r="AI58" s="3">
@@ -15519,8 +15628,16 @@
         <f t="shared" si="28"/>
         <v>8.4218827192672485E-5</v>
       </c>
+      <c r="AL58" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM31,AM36,AM41)</f>
+        <v>4.0728886186540539E-5</v>
+      </c>
+      <c r="AM58" s="1">
+        <f t="shared" si="29"/>
+        <v>1.3576295395513512E-5</v>
+      </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>24</v>
       </c>
@@ -15604,7 +15721,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>24</v>
       </c>
@@ -15676,7 +15793,7 @@
         <v>927500000</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>24</v>
       </c>
@@ -15760,7 +15877,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>24</v>
       </c>
@@ -15832,7 +15949,7 @@
         <v>740000000</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>24</v>
       </c>
@@ -15916,7 +16033,7 @@
         <v>29999999.999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>24</v>
       </c>
@@ -16454,7 +16571,7 @@
         <v>20000000000</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" ref="W70:W80" si="31">_xlfn.AGGREGATE(1, 6, P70:U70)</f>
+        <f t="shared" ref="W70:W80" si="32">_xlfn.AGGREGATE(1, 6, P70:U70)</f>
         <v>5555000000</v>
       </c>
     </row>
@@ -16526,7 +16643,7 @@
         <v>10000000000</v>
       </c>
       <c r="W71" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3240000000</v>
       </c>
       <c r="X71" s="1">
@@ -16610,7 +16727,7 @@
         <v>10000000000</v>
       </c>
       <c r="W72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3452500000</v>
       </c>
     </row>
@@ -16682,7 +16799,7 @@
         <v>0</v>
       </c>
       <c r="W73" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1435000000</v>
       </c>
       <c r="X73" s="1">
@@ -16766,7 +16883,7 @@
         <v>10000000000</v>
       </c>
       <c r="W74" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3710000000</v>
       </c>
       <c r="AL74" s="2"/>
@@ -16839,7 +16956,7 @@
         <v>0</v>
       </c>
       <c r="W75" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1035000000</v>
       </c>
       <c r="X75" s="1">
@@ -16923,7 +17040,7 @@
         <v>0</v>
       </c>
       <c r="W76" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1010000000</v>
       </c>
     </row>
@@ -16995,7 +17112,7 @@
         <v>0</v>
       </c>
       <c r="W77" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1455000000</v>
       </c>
       <c r="X77" s="1">
@@ -17055,31 +17172,31 @@
         <v>0</v>
       </c>
       <c r="P78" s="1" t="e">
-        <f t="shared" ref="P78:P80" si="32">I78*100*10^(-1*$I$2)</f>
+        <f t="shared" ref="P78:P80" si="33">I78*100*10^(-1*$I$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q78" s="1" t="e">
-        <f t="shared" ref="Q78:Q80" si="33">J78*100*10^(-1*$J$2)</f>
+        <f t="shared" ref="Q78:Q80" si="34">J78*100*10^(-1*$J$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" ref="R78:R80" si="34">K78*100*10^(-1*$K$2)</f>
+        <f t="shared" ref="R78:R80" si="35">K78*100*10^(-1*$K$2)</f>
         <v>1430000000</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" ref="S78:S80" si="35">L78*100*10^(-1*$L$2)</f>
+        <f t="shared" ref="S78:S80" si="36">L78*100*10^(-1*$L$2)</f>
         <v>2300000000</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" ref="T78:T80" si="36">M78*100*10^(-1*$M$2)</f>
+        <f t="shared" ref="T78:T80" si="37">M78*100*10^(-1*$M$2)</f>
         <v>0</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" ref="U78:U80" si="37">N78*100*10^(-1*$N$2)</f>
+        <f t="shared" ref="U78:U80" si="38">N78*100*10^(-1*$N$2)</f>
         <v>0</v>
       </c>
       <c r="W78" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>932500000</v>
       </c>
     </row>
@@ -17127,31 +17244,31 @@
         <v>0</v>
       </c>
       <c r="P79" s="1" t="e">
-        <f t="shared" si="32"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q79" s="1" t="e">
         <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
+      <c r="Q79" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R79" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1010000000</v>
       </c>
       <c r="S79" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1100000000</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1000000000</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W79" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>777500000</v>
       </c>
       <c r="X79" s="1">
@@ -17212,31 +17329,31 @@
         <v>0</v>
       </c>
       <c r="P80" s="1" t="e">
-        <f t="shared" si="32"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q80" s="1" t="e">
         <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
+      <c r="Q80" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R80" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1050000000</v>
       </c>
       <c r="S80" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1800000000</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2000000000</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W80" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1212500000</v>
       </c>
     </row>
@@ -17433,11 +17550,11 @@
         <v>0</v>
       </c>
       <c r="P85" s="1" t="e">
-        <f t="shared" ref="P85:P99" si="38">I85*100*10^(-1*$I$2)</f>
+        <f t="shared" ref="P85:P99" si="39">I85*100*10^(-1*$I$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q85" s="1" t="e">
-        <f t="shared" ref="Q85:Q148" si="39">J85*100*10^(-1*$J$2)</f>
+        <f t="shared" ref="Q85:Q148" si="40">J85*100*10^(-1*$J$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="R85" s="1">
@@ -17505,11 +17622,11 @@
         <v>0</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R86" s="1">
@@ -17589,11 +17706,11 @@
         <v>0</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R87" s="1">
@@ -17613,7 +17730,7 @@
         <v>0</v>
       </c>
       <c r="W87" s="1">
-        <f t="shared" ref="W87:W150" si="40">_xlfn.AGGREGATE(1, 6, P87:U87)</f>
+        <f t="shared" ref="W87:W150" si="41">_xlfn.AGGREGATE(1, 6, P87:U87)</f>
         <v>0</v>
       </c>
     </row>
@@ -17661,31 +17778,31 @@
         <v>0</v>
       </c>
       <c r="P88" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q88" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" ref="R88:R91" si="41">K88*100*10^(-1*$K$2)</f>
+        <f t="shared" ref="R88:R91" si="42">K88*100*10^(-1*$K$2)</f>
         <v>0</v>
       </c>
       <c r="S88" s="1">
-        <f t="shared" ref="S88:S151" si="42">L88*100*10^(-1*$L$2)</f>
+        <f t="shared" ref="S88:S151" si="43">L88*100*10^(-1*$L$2)</f>
         <v>0</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" ref="T88:T151" si="43">M88*100*10^(-1*$M$2)</f>
+        <f t="shared" ref="T88:T151" si="44">M88*100*10^(-1*$M$2)</f>
         <v>0</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" ref="U88:U151" si="44">N88*100*10^(-1*$N$2)</f>
+        <f t="shared" ref="U88:U151" si="45">N88*100*10^(-1*$N$2)</f>
         <v>0</v>
       </c>
       <c r="W88" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="X88" s="1">
@@ -17745,31 +17862,31 @@
         <v>0</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R89" s="1">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T89" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U89" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="W89" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T89" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="1">
-        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -17817,31 +17934,31 @@
         <v>0</v>
       </c>
       <c r="P90" s="1" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q90" s="1" t="e">
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="Q90" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R90" s="1">
+        <f t="shared" si="42"/>
+        <v>690000000</v>
+      </c>
+      <c r="S90" s="1">
+        <f t="shared" si="43"/>
+        <v>800000000</v>
+      </c>
+      <c r="T90" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U90" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="W90" s="1">
         <f t="shared" si="41"/>
-        <v>690000000</v>
-      </c>
-      <c r="S90" s="1">
-        <f t="shared" si="42"/>
-        <v>800000000</v>
-      </c>
-      <c r="T90" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U90" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="1">
-        <f t="shared" si="40"/>
         <v>622500000</v>
       </c>
       <c r="X90" s="1">
@@ -17901,31 +18018,31 @@
         <v>0</v>
       </c>
       <c r="P91" s="1" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q91" s="1" t="e">
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="Q91" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R91" s="1">
+        <f t="shared" si="42"/>
+        <v>820000000</v>
+      </c>
+      <c r="S91" s="1">
+        <f t="shared" si="43"/>
+        <v>700000000</v>
+      </c>
+      <c r="T91" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U91" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="W91" s="1">
         <f t="shared" si="41"/>
-        <v>820000000</v>
-      </c>
-      <c r="S91" s="1">
-        <f t="shared" si="42"/>
-        <v>700000000</v>
-      </c>
-      <c r="T91" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U91" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="W91" s="1">
-        <f t="shared" si="40"/>
         <v>380000000</v>
       </c>
     </row>
@@ -17973,11 +18090,11 @@
         <v>0</v>
       </c>
       <c r="P92" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q92" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R92" s="1">
@@ -17985,19 +18102,19 @@
         <v>680000000</v>
       </c>
       <c r="S92" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1000000000</v>
       </c>
       <c r="T92" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W92" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>420000000</v>
       </c>
       <c r="X92" s="1">
@@ -18057,31 +18174,31 @@
         <v>0</v>
       </c>
       <c r="P93" s="1" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q93" s="1" t="e">
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="Q93" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R93" s="1">
-        <f t="shared" ref="R93:R156" si="45">K93*100*10^(-1*$K$2)</f>
+        <f t="shared" ref="R93:R156" si="46">K93*100*10^(-1*$K$2)</f>
         <v>660000000</v>
       </c>
       <c r="S93" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>500000000</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W93" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>290000000</v>
       </c>
     </row>
@@ -18129,31 +18246,31 @@
         <v>0</v>
       </c>
       <c r="P94" s="1" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q94" s="1" t="e">
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="Q94" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R94" s="1">
+        <f t="shared" si="46"/>
+        <v>740000000</v>
+      </c>
+      <c r="S94" s="1">
+        <f t="shared" si="43"/>
+        <v>700000000</v>
+      </c>
+      <c r="T94" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U94" s="1">
         <f t="shared" si="45"/>
-        <v>740000000</v>
-      </c>
-      <c r="S94" s="1">
-        <f t="shared" si="42"/>
-        <v>700000000</v>
-      </c>
-      <c r="T94" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U94" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W94" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>360000000</v>
       </c>
       <c r="X94" s="1">
@@ -18213,31 +18330,31 @@
         <v>0</v>
       </c>
       <c r="P95" s="1" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q95" s="1" t="e">
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="Q95" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R95" s="1">
+        <f t="shared" si="46"/>
+        <v>720000000</v>
+      </c>
+      <c r="S95" s="1">
+        <f t="shared" si="43"/>
+        <v>700000000</v>
+      </c>
+      <c r="T95" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U95" s="1">
         <f t="shared" si="45"/>
-        <v>720000000</v>
-      </c>
-      <c r="S95" s="1">
-        <f t="shared" si="42"/>
-        <v>700000000</v>
-      </c>
-      <c r="T95" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U95" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W95" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>355000000</v>
       </c>
     </row>
@@ -18285,31 +18402,31 @@
         <v>0</v>
       </c>
       <c r="P96" s="1" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q96" s="1" t="e">
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="Q96" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R96" s="1">
+        <f t="shared" si="46"/>
+        <v>480000000</v>
+      </c>
+      <c r="S96" s="1">
+        <f t="shared" si="43"/>
+        <v>500000000</v>
+      </c>
+      <c r="T96" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U96" s="1">
         <f t="shared" si="45"/>
-        <v>480000000</v>
-      </c>
-      <c r="S96" s="1">
-        <f t="shared" si="42"/>
-        <v>500000000</v>
-      </c>
-      <c r="T96" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U96" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W96" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>245000000</v>
       </c>
       <c r="X96" s="1">
@@ -18369,31 +18486,31 @@
         <v>0</v>
       </c>
       <c r="P97" s="1" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q97" s="1" t="e">
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="Q97" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R97" s="1">
+        <f t="shared" si="46"/>
+        <v>420000000</v>
+      </c>
+      <c r="S97" s="1">
+        <f t="shared" si="43"/>
+        <v>500000000</v>
+      </c>
+      <c r="T97" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U97" s="1">
         <f t="shared" si="45"/>
-        <v>420000000</v>
-      </c>
-      <c r="S97" s="1">
-        <f t="shared" si="42"/>
-        <v>500000000</v>
-      </c>
-      <c r="T97" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U97" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W97" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>230000000</v>
       </c>
     </row>
@@ -18441,31 +18558,31 @@
         <v>0</v>
       </c>
       <c r="P98" s="1" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q98" s="1" t="e">
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="Q98" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R98" s="1">
+        <f t="shared" si="46"/>
+        <v>450000000</v>
+      </c>
+      <c r="S98" s="1">
+        <f t="shared" si="43"/>
+        <v>700000000</v>
+      </c>
+      <c r="T98" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U98" s="1">
         <f t="shared" si="45"/>
-        <v>450000000</v>
-      </c>
-      <c r="S98" s="1">
-        <f t="shared" si="42"/>
-        <v>700000000</v>
-      </c>
-      <c r="T98" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U98" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W98" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>287500000</v>
       </c>
       <c r="X98" s="1">
@@ -18525,31 +18642,31 @@
         <v>0</v>
       </c>
       <c r="P99" s="1" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q99" s="1" t="e">
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="Q99" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R99" s="1">
+        <f t="shared" si="46"/>
+        <v>460000000</v>
+      </c>
+      <c r="S99" s="1">
+        <f t="shared" si="43"/>
+        <v>600000000</v>
+      </c>
+      <c r="T99" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U99" s="1">
         <f t="shared" si="45"/>
-        <v>460000000</v>
-      </c>
-      <c r="S99" s="1">
-        <f t="shared" si="42"/>
-        <v>600000000</v>
-      </c>
-      <c r="T99" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U99" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W99" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>265000000</v>
       </c>
     </row>
@@ -18601,27 +18718,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="Q100" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R100" s="1">
+        <f t="shared" si="46"/>
+        <v>540000000</v>
+      </c>
+      <c r="S100" s="1">
+        <f t="shared" si="43"/>
+        <v>700000000</v>
+      </c>
+      <c r="T100" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U100" s="1">
         <f t="shared" si="45"/>
-        <v>540000000</v>
-      </c>
-      <c r="S100" s="1">
-        <f t="shared" si="42"/>
-        <v>700000000</v>
-      </c>
-      <c r="T100" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U100" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W100" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>560000000</v>
       </c>
       <c r="X100" s="1">
@@ -18681,31 +18798,31 @@
         <v>0</v>
       </c>
       <c r="P101" s="1" t="e">
-        <f t="shared" ref="P101:P161" si="46">I101*100*10^(-1*$I$2)</f>
+        <f t="shared" ref="P101:P161" si="47">I101*100*10^(-1*$I$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q101" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R101" s="1">
+        <f t="shared" si="46"/>
+        <v>450000000</v>
+      </c>
+      <c r="S101" s="1">
+        <f t="shared" si="43"/>
+        <v>900000000</v>
+      </c>
+      <c r="T101" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U101" s="1">
         <f t="shared" si="45"/>
-        <v>450000000</v>
-      </c>
-      <c r="S101" s="1">
-        <f t="shared" si="42"/>
-        <v>900000000</v>
-      </c>
-      <c r="T101" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U101" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W101" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>587500000</v>
       </c>
     </row>
@@ -18753,31 +18870,31 @@
         <v>0</v>
       </c>
       <c r="P102" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q102" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R102" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q102" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R102" s="1">
+        <v>450000000</v>
+      </c>
+      <c r="S102" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T102" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U102" s="1">
         <f t="shared" si="45"/>
-        <v>450000000</v>
-      </c>
-      <c r="S102" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T102" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U102" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W102" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>462500000</v>
       </c>
       <c r="X102" s="1">
@@ -18837,31 +18954,31 @@
         <v>0</v>
       </c>
       <c r="P103" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q103" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R103" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q103" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R103" s="1">
+        <v>300000000</v>
+      </c>
+      <c r="S103" s="1">
+        <f t="shared" si="43"/>
+        <v>600000000</v>
+      </c>
+      <c r="T103" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U103" s="1">
         <f t="shared" si="45"/>
-        <v>300000000</v>
-      </c>
-      <c r="S103" s="1">
-        <f t="shared" si="42"/>
-        <v>600000000</v>
-      </c>
-      <c r="T103" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U103" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W103" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>475000000</v>
       </c>
     </row>
@@ -18909,31 +19026,31 @@
         <v>0</v>
       </c>
       <c r="P104" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q104" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R104" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q104" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R104" s="1">
+        <v>760000000</v>
+      </c>
+      <c r="S104" s="1">
+        <f t="shared" si="43"/>
+        <v>700000000</v>
+      </c>
+      <c r="T104" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U104" s="1">
         <f t="shared" si="45"/>
-        <v>760000000</v>
-      </c>
-      <c r="S104" s="1">
-        <f t="shared" si="42"/>
-        <v>700000000</v>
-      </c>
-      <c r="T104" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U104" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W104" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>365000000</v>
       </c>
       <c r="X104" s="1">
@@ -18993,31 +19110,31 @@
         <v>0</v>
       </c>
       <c r="P105" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q105" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R105" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q105" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R105" s="1">
+        <v>610000000</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="43"/>
+        <v>700000000</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U105" s="1">
         <f t="shared" si="45"/>
-        <v>610000000</v>
-      </c>
-      <c r="S105" s="1">
-        <f t="shared" si="42"/>
-        <v>700000000</v>
-      </c>
-      <c r="T105" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U105" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W105" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>577500000</v>
       </c>
     </row>
@@ -19065,31 +19182,31 @@
         <v>0</v>
       </c>
       <c r="P106" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q106" s="1">
+        <f t="shared" si="40"/>
+        <v>22000000</v>
+      </c>
+      <c r="R106" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q106" s="1">
-        <f t="shared" si="39"/>
-        <v>22000000</v>
-      </c>
-      <c r="R106" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="S106" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T106" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U106" s="1">
         <f t="shared" si="45"/>
-        <v>40000000</v>
-      </c>
-      <c r="S106" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T106" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U106" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W106" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>32400000</v>
       </c>
       <c r="X106" s="1">
@@ -19149,31 +19266,31 @@
         <v>0</v>
       </c>
       <c r="P107" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q107" s="1">
+        <f t="shared" si="40"/>
+        <v>17000000</v>
+      </c>
+      <c r="R107" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q107" s="1">
-        <f t="shared" si="39"/>
-        <v>17000000</v>
-      </c>
-      <c r="R107" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="S107" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T107" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U107" s="1">
         <f t="shared" si="45"/>
-        <v>40000000</v>
-      </c>
-      <c r="S107" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T107" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U107" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W107" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>11400000</v>
       </c>
     </row>
@@ -19221,31 +19338,31 @@
         <v>0</v>
       </c>
       <c r="P108" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q108" s="1">
+        <f t="shared" si="40"/>
+        <v>66000000</v>
+      </c>
+      <c r="R108" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q108" s="1">
-        <f t="shared" si="39"/>
-        <v>66000000</v>
-      </c>
-      <c r="R108" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="S108" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T108" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U108" s="1">
         <f t="shared" si="45"/>
-        <v>40000000</v>
-      </c>
-      <c r="S108" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T108" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U108" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W108" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>41200000</v>
       </c>
       <c r="X108" s="1">
@@ -19305,31 +19422,31 @@
         <v>0</v>
       </c>
       <c r="P109" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q109" s="1">
+        <f t="shared" si="40"/>
+        <v>56000000</v>
+      </c>
+      <c r="R109" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q109" s="1">
-        <f t="shared" si="39"/>
-        <v>56000000</v>
-      </c>
-      <c r="R109" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="S109" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T109" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U109" s="1">
         <f t="shared" si="45"/>
-        <v>120000000</v>
-      </c>
-      <c r="S109" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T109" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U109" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W109" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>55200000</v>
       </c>
     </row>
@@ -19377,7 +19494,7 @@
         <v>0</v>
       </c>
       <c r="P110" s="1" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q110" s="1">
@@ -19385,23 +19502,23 @@
         <v>11000000</v>
       </c>
       <c r="R110" s="1">
+        <f t="shared" si="46"/>
+        <v>30000000</v>
+      </c>
+      <c r="S110" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T110" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U110" s="1">
         <f t="shared" si="45"/>
-        <v>30000000</v>
-      </c>
-      <c r="S110" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T110" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U110" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W110" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>8200000</v>
       </c>
       <c r="X110" s="1">
@@ -19461,31 +19578,31 @@
         <v>0</v>
       </c>
       <c r="P111" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q111" s="1">
+        <f t="shared" si="40"/>
+        <v>20000000</v>
+      </c>
+      <c r="R111" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q111" s="1">
-        <f t="shared" si="39"/>
-        <v>20000000</v>
-      </c>
-      <c r="R111" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="S111" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T111" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U111" s="1">
         <f t="shared" si="45"/>
-        <v>30000000</v>
-      </c>
-      <c r="S111" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T111" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U111" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W111" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>10000000</v>
       </c>
     </row>
@@ -19533,31 +19650,31 @@
         <v>0</v>
       </c>
       <c r="P112" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q112" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R112" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q112" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R112" s="1">
+        <v>320000000</v>
+      </c>
+      <c r="S112" s="1">
+        <f t="shared" si="43"/>
+        <v>200000000</v>
+      </c>
+      <c r="T112" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U112" s="1">
         <f t="shared" si="45"/>
-        <v>320000000</v>
-      </c>
-      <c r="S112" s="1">
-        <f t="shared" si="42"/>
-        <v>200000000</v>
-      </c>
-      <c r="T112" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U112" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W112" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>130000000</v>
       </c>
       <c r="X112" s="1">
@@ -19617,7 +19734,7 @@
         <v>0</v>
       </c>
       <c r="P113" s="1" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q113" s="1" t="e">
@@ -19641,7 +19758,7 @@
         <v>0</v>
       </c>
       <c r="W113" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>155000000</v>
       </c>
     </row>
@@ -19689,7 +19806,7 @@
         <v>0</v>
       </c>
       <c r="P114" s="1" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q114" s="1" t="e">
@@ -19713,7 +19830,7 @@
         <v>0</v>
       </c>
       <c r="W114" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>625000000</v>
       </c>
       <c r="X114" s="1">
@@ -19773,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="P115" s="1" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q115" s="1" t="e">
@@ -19797,7 +19914,7 @@
         <v>0</v>
       </c>
       <c r="W115" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>372500000</v>
       </c>
     </row>
@@ -19845,31 +19962,31 @@
         <v>0</v>
       </c>
       <c r="P116" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q116" s="1">
+        <f t="shared" si="40"/>
+        <v>20000000</v>
+      </c>
+      <c r="R116" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q116" s="1">
-        <f t="shared" si="39"/>
-        <v>20000000</v>
-      </c>
-      <c r="R116" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="S116" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T116" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U116" s="1">
         <f t="shared" si="45"/>
-        <v>30000000</v>
-      </c>
-      <c r="S116" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T116" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U116" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W116" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>10000000</v>
       </c>
       <c r="X116" s="1">
@@ -19929,31 +20046,31 @@
         <v>0</v>
       </c>
       <c r="P117" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q117" s="1">
+        <f t="shared" si="40"/>
+        <v>14000000</v>
+      </c>
+      <c r="R117" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q117" s="1">
-        <f t="shared" si="39"/>
-        <v>14000000</v>
-      </c>
-      <c r="R117" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="S117" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T117" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U117" s="1">
         <f t="shared" si="45"/>
-        <v>20000000</v>
-      </c>
-      <c r="S117" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T117" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U117" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W117" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>6800000</v>
       </c>
     </row>
@@ -20001,31 +20118,31 @@
         <v>0</v>
       </c>
       <c r="P118" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q118" s="1">
+        <f t="shared" si="40"/>
+        <v>65000000</v>
+      </c>
+      <c r="R118" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q118" s="1">
-        <f t="shared" si="39"/>
-        <v>65000000</v>
-      </c>
-      <c r="R118" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="S118" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T118" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U118" s="1">
         <f t="shared" si="45"/>
-        <v>100000000</v>
-      </c>
-      <c r="S118" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T118" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U118" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W118" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>33000000</v>
       </c>
       <c r="X118" s="1">
@@ -20085,31 +20202,31 @@
         <v>0</v>
       </c>
       <c r="P119" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q119" s="1">
+        <f t="shared" si="40"/>
+        <v>68000000</v>
+      </c>
+      <c r="R119" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q119" s="1">
-        <f t="shared" si="39"/>
-        <v>68000000</v>
-      </c>
-      <c r="R119" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="S119" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T119" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U119" s="1">
         <f t="shared" si="45"/>
-        <v>120000000</v>
-      </c>
-      <c r="S119" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T119" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U119" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W119" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>57600000</v>
       </c>
     </row>
@@ -20157,31 +20274,31 @@
         <v>0</v>
       </c>
       <c r="P120" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q120" s="1">
+        <f t="shared" si="40"/>
+        <v>55000000</v>
+      </c>
+      <c r="R120" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q120" s="1">
-        <f t="shared" si="39"/>
-        <v>55000000</v>
-      </c>
-      <c r="R120" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="S120" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T120" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U120" s="1">
         <f t="shared" si="45"/>
-        <v>40000000</v>
-      </c>
-      <c r="S120" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T120" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U120" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W120" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>19000000</v>
       </c>
       <c r="X120" s="1">
@@ -20241,31 +20358,31 @@
         <v>0</v>
       </c>
       <c r="P121" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q121" s="1">
+        <f t="shared" si="40"/>
+        <v>48000000</v>
+      </c>
+      <c r="R121" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q121" s="1">
-        <f t="shared" si="39"/>
-        <v>48000000</v>
-      </c>
-      <c r="R121" s="1">
+        <v>60000000</v>
+      </c>
+      <c r="S121" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T121" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U121" s="1">
         <f t="shared" si="45"/>
-        <v>60000000</v>
-      </c>
-      <c r="S121" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T121" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U121" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W121" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>41600000</v>
       </c>
     </row>
@@ -20313,31 +20430,31 @@
         <v>0</v>
       </c>
       <c r="P122" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q122" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R122" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q122" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R122" s="1">
+        <v>370000000</v>
+      </c>
+      <c r="S122" s="1">
+        <f t="shared" si="43"/>
+        <v>300000000</v>
+      </c>
+      <c r="T122" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U122" s="1">
         <f t="shared" si="45"/>
-        <v>370000000</v>
-      </c>
-      <c r="S122" s="1">
-        <f t="shared" si="42"/>
-        <v>300000000</v>
-      </c>
-      <c r="T122" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U122" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W122" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>167500000</v>
       </c>
       <c r="X122" s="1">
@@ -20397,31 +20514,31 @@
         <v>0</v>
       </c>
       <c r="P123" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q123" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R123" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q123" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R123" s="1">
+        <v>370000000</v>
+      </c>
+      <c r="S123" s="1">
+        <f t="shared" si="43"/>
+        <v>600000000</v>
+      </c>
+      <c r="T123" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U123" s="1">
         <f t="shared" si="45"/>
-        <v>370000000</v>
-      </c>
-      <c r="S123" s="1">
-        <f t="shared" si="42"/>
-        <v>600000000</v>
-      </c>
-      <c r="T123" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U123" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W123" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>492500000</v>
       </c>
     </row>
@@ -20469,31 +20586,31 @@
         <v>0</v>
       </c>
       <c r="P124" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q124" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R124" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q124" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R124" s="1">
+        <v>680000000</v>
+      </c>
+      <c r="S124" s="1">
+        <f t="shared" si="43"/>
+        <v>1000000000</v>
+      </c>
+      <c r="T124" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U124" s="1">
         <f t="shared" si="45"/>
-        <v>680000000</v>
-      </c>
-      <c r="S124" s="1">
-        <f t="shared" si="42"/>
-        <v>1000000000</v>
-      </c>
-      <c r="T124" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U124" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W124" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>420000000</v>
       </c>
       <c r="X124" s="1">
@@ -20553,31 +20670,31 @@
         <v>0</v>
       </c>
       <c r="P125" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q125" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R125" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q125" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R125" s="1">
+        <v>750000000</v>
+      </c>
+      <c r="S125" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T125" s="1">
+        <f t="shared" si="44"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U125" s="1">
         <f t="shared" si="45"/>
-        <v>750000000</v>
-      </c>
-      <c r="S125" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T125" s="1">
-        <f t="shared" si="43"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U125" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W125" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>787500000</v>
       </c>
     </row>
@@ -20625,31 +20742,31 @@
         <v>0</v>
       </c>
       <c r="P126" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q126" s="1">
+        <f t="shared" si="40"/>
+        <v>29000000</v>
+      </c>
+      <c r="R126" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q126" s="1">
-        <f t="shared" si="39"/>
-        <v>29000000</v>
-      </c>
-      <c r="R126" s="1">
+        <v>60000000</v>
+      </c>
+      <c r="S126" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T126" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U126" s="1">
         <f t="shared" si="45"/>
-        <v>60000000</v>
-      </c>
-      <c r="S126" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T126" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U126" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W126" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>17800000</v>
       </c>
       <c r="X126" s="1">
@@ -20709,31 +20826,31 @@
         <v>0</v>
       </c>
       <c r="P127" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q127" s="1">
+        <f t="shared" si="40"/>
+        <v>26000000</v>
+      </c>
+      <c r="R127" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q127" s="1">
-        <f t="shared" si="39"/>
-        <v>26000000</v>
-      </c>
-      <c r="R127" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="S127" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T127" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U127" s="1">
         <f t="shared" si="45"/>
-        <v>10000000</v>
-      </c>
-      <c r="S127" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T127" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U127" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W127" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>7200000</v>
       </c>
     </row>
@@ -20781,31 +20898,31 @@
         <v>0</v>
       </c>
       <c r="P128" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q128" s="1">
+        <f t="shared" si="40"/>
+        <v>68000000</v>
+      </c>
+      <c r="R128" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q128" s="1">
-        <f t="shared" si="39"/>
-        <v>68000000</v>
-      </c>
-      <c r="R128" s="1">
+        <v>60000000</v>
+      </c>
+      <c r="S128" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T128" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U128" s="1">
         <f t="shared" si="45"/>
-        <v>60000000</v>
-      </c>
-      <c r="S128" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T128" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U128" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W128" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>25600000</v>
       </c>
       <c r="X128" s="1">
@@ -20865,31 +20982,31 @@
         <v>0</v>
       </c>
       <c r="P129" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q129" s="1">
+        <f t="shared" si="40"/>
+        <v>69000000</v>
+      </c>
+      <c r="R129" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q129" s="1">
-        <f t="shared" si="39"/>
-        <v>69000000</v>
-      </c>
-      <c r="R129" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="S129" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T129" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U129" s="1">
         <f t="shared" si="45"/>
-        <v>40000000</v>
-      </c>
-      <c r="S129" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T129" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U129" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W129" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>21800000</v>
       </c>
     </row>
@@ -20937,31 +21054,31 @@
         <v>0</v>
       </c>
       <c r="P130" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q130" s="1">
+        <f t="shared" si="40"/>
+        <v>33000000</v>
+      </c>
+      <c r="R130" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q130" s="1">
-        <f t="shared" si="39"/>
-        <v>33000000</v>
-      </c>
-      <c r="R130" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="S130" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T130" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U130" s="1">
         <f t="shared" si="45"/>
-        <v>40000000</v>
-      </c>
-      <c r="S130" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T130" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U130" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W130" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>14600000</v>
       </c>
       <c r="X130" s="1">
@@ -21021,31 +21138,31 @@
         <v>0</v>
       </c>
       <c r="P131" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q131" s="1">
+        <f t="shared" si="40"/>
+        <v>32000000</v>
+      </c>
+      <c r="R131" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q131" s="1">
-        <f t="shared" si="39"/>
-        <v>32000000</v>
-      </c>
-      <c r="R131" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="S131" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T131" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U131" s="1">
         <f t="shared" si="45"/>
-        <v>50000000</v>
-      </c>
-      <c r="S131" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T131" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U131" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W131" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16400000</v>
       </c>
     </row>
@@ -21093,31 +21210,31 @@
         <v>0</v>
       </c>
       <c r="P132" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q132" s="1">
+        <f t="shared" si="40"/>
+        <v>45000000</v>
+      </c>
+      <c r="R132" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q132" s="1">
-        <f t="shared" si="39"/>
-        <v>45000000</v>
-      </c>
-      <c r="R132" s="1">
+        <v>80000000</v>
+      </c>
+      <c r="S132" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T132" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U132" s="1">
         <f t="shared" si="45"/>
-        <v>80000000</v>
-      </c>
-      <c r="S132" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T132" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U132" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W132" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>25000000</v>
       </c>
       <c r="X132" s="1">
@@ -21177,31 +21294,31 @@
         <v>0</v>
       </c>
       <c r="P133" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q133" s="1">
+        <f t="shared" si="40"/>
+        <v>53000000</v>
+      </c>
+      <c r="R133" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q133" s="1">
-        <f t="shared" si="39"/>
-        <v>53000000</v>
-      </c>
-      <c r="R133" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="S133" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T133" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U133" s="1">
         <f t="shared" si="45"/>
-        <v>50000000</v>
-      </c>
-      <c r="S133" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T133" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U133" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W133" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>220600000</v>
       </c>
     </row>
@@ -21249,31 +21366,31 @@
         <v>0</v>
       </c>
       <c r="P134" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q134" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R134" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q134" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R134" s="1">
+        <v>670000000</v>
+      </c>
+      <c r="S134" s="1">
+        <f t="shared" si="43"/>
+        <v>1400000000</v>
+      </c>
+      <c r="T134" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U134" s="1">
         <f t="shared" si="45"/>
-        <v>670000000</v>
-      </c>
-      <c r="S134" s="1">
-        <f t="shared" si="42"/>
-        <v>1400000000</v>
-      </c>
-      <c r="T134" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U134" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W134" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>517500000</v>
       </c>
       <c r="X134" s="1">
@@ -21333,31 +21450,31 @@
         <v>0</v>
       </c>
       <c r="P135" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q135" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R135" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q135" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R135" s="1">
+        <v>610000000</v>
+      </c>
+      <c r="S135" s="1">
+        <f t="shared" si="43"/>
+        <v>800000000</v>
+      </c>
+      <c r="T135" s="1">
+        <f t="shared" si="44"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U135" s="1">
         <f t="shared" si="45"/>
-        <v>610000000</v>
-      </c>
-      <c r="S135" s="1">
-        <f t="shared" si="42"/>
-        <v>800000000</v>
-      </c>
-      <c r="T135" s="1">
-        <f t="shared" si="43"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U135" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W135" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>852500000</v>
       </c>
     </row>
@@ -21405,31 +21522,31 @@
         <v>0</v>
       </c>
       <c r="P136" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q136" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R136" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q136" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R136" s="1">
+        <v>310000000</v>
+      </c>
+      <c r="S136" s="1">
+        <f t="shared" si="43"/>
+        <v>500000000</v>
+      </c>
+      <c r="T136" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U136" s="1">
         <f t="shared" si="45"/>
-        <v>310000000</v>
-      </c>
-      <c r="S136" s="1">
-        <f t="shared" si="42"/>
-        <v>500000000</v>
-      </c>
-      <c r="T136" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U136" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W136" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>202500000</v>
       </c>
       <c r="X136" s="1">
@@ -21489,31 +21606,31 @@
         <v>0</v>
       </c>
       <c r="P137" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q137" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R137" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q137" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R137" s="1">
+        <v>380000000</v>
+      </c>
+      <c r="S137" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T137" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U137" s="1">
         <f t="shared" si="45"/>
-        <v>380000000</v>
-      </c>
-      <c r="S137" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T137" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U137" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W137" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>370000000</v>
       </c>
     </row>
@@ -21561,31 +21678,31 @@
         <v>0</v>
       </c>
       <c r="P138" s="1">
+        <f t="shared" si="47"/>
+        <v>300000</v>
+      </c>
+      <c r="Q138" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="R138" s="1">
         <f t="shared" si="46"/>
-        <v>300000</v>
-      </c>
-      <c r="Q138" s="1">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="R138" s="1">
+        <v>0</v>
+      </c>
+      <c r="S138" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T138" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U138" s="1">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S138" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T138" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U138" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
       <c r="W138" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>50000</v>
       </c>
       <c r="X138" s="1">
@@ -21645,31 +21762,31 @@
         <v>0</v>
       </c>
       <c r="P139" s="1">
+        <f t="shared" si="47"/>
+        <v>300000</v>
+      </c>
+      <c r="Q139" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="R139" s="1">
         <f t="shared" si="46"/>
-        <v>300000</v>
-      </c>
-      <c r="Q139" s="1">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="R139" s="1">
+        <v>0</v>
+      </c>
+      <c r="S139" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T139" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U139" s="1">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S139" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T139" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U139" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
       <c r="W139" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>50000</v>
       </c>
     </row>
@@ -21717,31 +21834,31 @@
         <v>0</v>
       </c>
       <c r="P140" s="1">
+        <f t="shared" si="47"/>
+        <v>100000</v>
+      </c>
+      <c r="Q140" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="R140" s="1">
         <f t="shared" si="46"/>
-        <v>100000</v>
-      </c>
-      <c r="Q140" s="1">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="R140" s="1">
+        <v>0</v>
+      </c>
+      <c r="S140" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T140" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U140" s="1">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S140" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T140" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U140" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
       <c r="W140" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16666.666666666668</v>
       </c>
       <c r="X140" s="1">
@@ -21801,31 +21918,31 @@
         <v>0</v>
       </c>
       <c r="P141" s="1">
+        <f t="shared" si="47"/>
+        <v>100000</v>
+      </c>
+      <c r="Q141" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="R141" s="1">
         <f t="shared" si="46"/>
-        <v>100000</v>
-      </c>
-      <c r="Q141" s="1">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="R141" s="1">
+        <v>0</v>
+      </c>
+      <c r="S141" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T141" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U141" s="1">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S141" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T141" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U141" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
       <c r="W141" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16666.666666666668</v>
       </c>
     </row>
@@ -21873,31 +21990,31 @@
         <v>0</v>
       </c>
       <c r="P142" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q142" s="1">
+        <f t="shared" si="40"/>
+        <v>44000000</v>
+      </c>
+      <c r="R142" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q142" s="1">
-        <f t="shared" si="39"/>
-        <v>44000000</v>
-      </c>
-      <c r="R142" s="1">
+        <v>80000000</v>
+      </c>
+      <c r="S142" s="1">
+        <f t="shared" si="43"/>
+        <v>200000000</v>
+      </c>
+      <c r="T142" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U142" s="1">
         <f t="shared" si="45"/>
-        <v>80000000</v>
-      </c>
-      <c r="S142" s="1">
-        <f t="shared" si="42"/>
-        <v>200000000</v>
-      </c>
-      <c r="T142" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U142" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W142" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>264800000</v>
       </c>
       <c r="X142" s="1">
@@ -21957,31 +22074,31 @@
         <v>0</v>
       </c>
       <c r="P143" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q143" s="1">
+        <f t="shared" si="40"/>
+        <v>50000000</v>
+      </c>
+      <c r="R143" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q143" s="1">
-        <f t="shared" si="39"/>
-        <v>50000000</v>
-      </c>
-      <c r="R143" s="1">
+        <v>80000000</v>
+      </c>
+      <c r="S143" s="1">
+        <f t="shared" si="43"/>
+        <v>200000000</v>
+      </c>
+      <c r="T143" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U143" s="1">
         <f t="shared" si="45"/>
-        <v>80000000</v>
-      </c>
-      <c r="S143" s="1">
-        <f t="shared" si="42"/>
-        <v>200000000</v>
-      </c>
-      <c r="T143" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U143" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W143" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>66000000</v>
       </c>
     </row>
@@ -22029,31 +22146,31 @@
         <v>0</v>
       </c>
       <c r="P144" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q144" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R144" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q144" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R144" s="1">
+        <v>810000000</v>
+      </c>
+      <c r="S144" s="1">
+        <f t="shared" si="43"/>
+        <v>600000000</v>
+      </c>
+      <c r="T144" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U144" s="1">
         <f t="shared" si="45"/>
-        <v>810000000</v>
-      </c>
-      <c r="S144" s="1">
-        <f t="shared" si="42"/>
-        <v>600000000</v>
-      </c>
-      <c r="T144" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U144" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W144" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>602500000</v>
       </c>
       <c r="X144" s="1">
@@ -22113,31 +22230,31 @@
         <v>0</v>
       </c>
       <c r="P145" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q145" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R145" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q145" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R145" s="1">
+        <v>750000000</v>
+      </c>
+      <c r="S145" s="1">
+        <f t="shared" si="43"/>
+        <v>600000000</v>
+      </c>
+      <c r="T145" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U145" s="1">
         <f t="shared" si="45"/>
-        <v>750000000</v>
-      </c>
-      <c r="S145" s="1">
-        <f t="shared" si="42"/>
-        <v>600000000</v>
-      </c>
-      <c r="T145" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U145" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W145" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>587500000</v>
       </c>
     </row>
@@ -22185,31 +22302,31 @@
         <v>0</v>
       </c>
       <c r="P146" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q146" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R146" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q146" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R146" s="1">
+        <v>380000000</v>
+      </c>
+      <c r="S146" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T146" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U146" s="1">
         <f t="shared" si="45"/>
-        <v>380000000</v>
-      </c>
-      <c r="S146" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T146" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U146" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W146" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>195000000</v>
       </c>
       <c r="X146" s="1">
@@ -22269,31 +22386,31 @@
         <v>0</v>
       </c>
       <c r="P147" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q147" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R147" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q147" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R147" s="1">
+        <v>320000000</v>
+      </c>
+      <c r="S147" s="1">
+        <f t="shared" si="43"/>
+        <v>600000000</v>
+      </c>
+      <c r="T147" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U147" s="1">
         <f t="shared" si="45"/>
-        <v>320000000</v>
-      </c>
-      <c r="S147" s="1">
-        <f t="shared" si="42"/>
-        <v>600000000</v>
-      </c>
-      <c r="T147" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U147" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W147" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>230000000</v>
       </c>
     </row>
@@ -22341,31 +22458,31 @@
         <v>0</v>
       </c>
       <c r="P148" s="1">
+        <f t="shared" si="47"/>
+        <v>600000</v>
+      </c>
+      <c r="Q148" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="R148" s="1">
         <f t="shared" si="46"/>
-        <v>600000</v>
-      </c>
-      <c r="Q148" s="1">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="R148" s="1">
+        <v>0</v>
+      </c>
+      <c r="S148" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T148" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U148" s="1">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S148" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T148" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U148" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
       <c r="W148" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>100000</v>
       </c>
       <c r="X148" s="1">
@@ -22425,31 +22542,31 @@
         <v>0</v>
       </c>
       <c r="P149" s="1">
+        <f t="shared" si="47"/>
+        <v>600000</v>
+      </c>
+      <c r="Q149" s="1">
+        <f t="shared" ref="Q149:Q161" si="48">J149*100*10^(-1*$J$2)</f>
+        <v>1000000</v>
+      </c>
+      <c r="R149" s="1">
         <f t="shared" si="46"/>
-        <v>600000</v>
-      </c>
-      <c r="Q149" s="1">
-        <f t="shared" ref="Q149:Q161" si="47">J149*100*10^(-1*$J$2)</f>
-        <v>1000000</v>
-      </c>
-      <c r="R149" s="1">
+        <v>0</v>
+      </c>
+      <c r="S149" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T149" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U149" s="1">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S149" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T149" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U149" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
       <c r="W149" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>266666.66666666669</v>
       </c>
     </row>
@@ -22497,31 +22614,31 @@
         <v>0</v>
       </c>
       <c r="P150" s="1">
+        <f t="shared" si="47"/>
+        <v>100000</v>
+      </c>
+      <c r="Q150" s="1">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="R150" s="1">
         <f t="shared" si="46"/>
-        <v>100000</v>
-      </c>
-      <c r="Q150" s="1">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="R150" s="1">
+        <v>0</v>
+      </c>
+      <c r="S150" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T150" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U150" s="1">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S150" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T150" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U150" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
       <c r="W150" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16666.666666666668</v>
       </c>
       <c r="X150" s="1">
@@ -22581,31 +22698,31 @@
         <v>0</v>
       </c>
       <c r="P151" s="1">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="Q151" s="1">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="R151" s="1">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="Q151" s="1">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="R151" s="1">
+      <c r="S151" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T151" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U151" s="1">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S151" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T151" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U151" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
       <c r="W151" s="1">
-        <f t="shared" ref="W151:W161" si="48">_xlfn.AGGREGATE(1, 6, P151:U151)</f>
+        <f t="shared" ref="W151:W161" si="49">_xlfn.AGGREGATE(1, 6, P151:U151)</f>
         <v>0</v>
       </c>
     </row>
@@ -22653,31 +22770,31 @@
         <v>0</v>
       </c>
       <c r="P152" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q152" s="1">
+        <f t="shared" si="48"/>
+        <v>44000000</v>
+      </c>
+      <c r="R152" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q152" s="1">
-        <f t="shared" si="47"/>
-        <v>44000000</v>
-      </c>
-      <c r="R152" s="1">
-        <f t="shared" si="45"/>
         <v>40000000</v>
       </c>
       <c r="S152" s="1">
-        <f t="shared" ref="S152:S161" si="49">L152*100*10^(-1*$L$2)</f>
+        <f t="shared" ref="S152:S161" si="50">L152*100*10^(-1*$L$2)</f>
         <v>0</v>
       </c>
       <c r="T152" s="1">
-        <f t="shared" ref="T152:T161" si="50">M152*100*10^(-1*$M$2)</f>
+        <f t="shared" ref="T152:T161" si="51">M152*100*10^(-1*$M$2)</f>
         <v>0</v>
       </c>
       <c r="U152" s="1">
-        <f t="shared" ref="U152:U161" si="51">N152*100*10^(-1*$N$2)</f>
+        <f t="shared" ref="U152:U161" si="52">N152*100*10^(-1*$N$2)</f>
         <v>0</v>
       </c>
       <c r="W152" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>16800000</v>
       </c>
       <c r="X152" s="1">
@@ -22737,31 +22854,31 @@
         <v>0</v>
       </c>
       <c r="P153" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q153" s="1">
+        <f t="shared" si="48"/>
+        <v>56000000</v>
+      </c>
+      <c r="R153" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q153" s="1">
-        <f t="shared" si="47"/>
-        <v>56000000</v>
-      </c>
-      <c r="R153" s="1">
-        <f t="shared" si="45"/>
         <v>70000000</v>
       </c>
       <c r="S153" s="1">
+        <f t="shared" si="50"/>
+        <v>100000000</v>
+      </c>
+      <c r="T153" s="1">
+        <f t="shared" si="51"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U153" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W153" s="1">
         <f t="shared" si="49"/>
-        <v>100000000</v>
-      </c>
-      <c r="T153" s="1">
-        <f t="shared" si="50"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U153" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W153" s="1">
-        <f t="shared" si="48"/>
         <v>245200000</v>
       </c>
     </row>
@@ -22809,31 +22926,31 @@
         <v>0</v>
       </c>
       <c r="P154" s="1" t="e">
-        <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q154" s="1" t="e">
         <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
+      <c r="Q154" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R154" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>670000000</v>
       </c>
       <c r="S154" s="1">
+        <f t="shared" si="50"/>
+        <v>1000000000</v>
+      </c>
+      <c r="T154" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U154" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W154" s="1">
         <f t="shared" si="49"/>
-        <v>1000000000</v>
-      </c>
-      <c r="T154" s="1">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U154" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W154" s="1">
-        <f t="shared" si="48"/>
         <v>417500000</v>
       </c>
       <c r="X154" s="1">
@@ -22893,31 +23010,31 @@
         <v>0</v>
       </c>
       <c r="P155" s="1" t="e">
-        <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q155" s="1" t="e">
         <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
+      <c r="Q155" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R155" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>660000000</v>
       </c>
       <c r="S155" s="1">
+        <f t="shared" si="50"/>
+        <v>800000000</v>
+      </c>
+      <c r="T155" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U155" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W155" s="1">
         <f t="shared" si="49"/>
-        <v>800000000</v>
-      </c>
-      <c r="T155" s="1">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U155" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W155" s="1">
-        <f t="shared" si="48"/>
         <v>365000000</v>
       </c>
     </row>
@@ -22965,31 +23082,31 @@
         <v>0</v>
       </c>
       <c r="P156" s="1" t="e">
-        <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q156" s="1" t="e">
         <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
+      <c r="Q156" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R156" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>530000000</v>
       </c>
       <c r="S156" s="1">
+        <f t="shared" si="50"/>
+        <v>800000000</v>
+      </c>
+      <c r="T156" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U156" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W156" s="1">
         <f t="shared" si="49"/>
-        <v>800000000</v>
-      </c>
-      <c r="T156" s="1">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U156" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W156" s="1">
-        <f t="shared" si="48"/>
         <v>332500000</v>
       </c>
       <c r="X156" s="1">
@@ -23049,31 +23166,31 @@
         <v>0</v>
       </c>
       <c r="P157" s="1" t="e">
-        <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q157" s="1" t="e">
         <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
+      <c r="Q157" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R157" s="1">
-        <f t="shared" ref="R157:R161" si="52">K157*100*10^(-1*$K$2)</f>
+        <f t="shared" ref="R157:R161" si="53">K157*100*10^(-1*$K$2)</f>
         <v>470000000</v>
       </c>
       <c r="S157" s="1">
+        <f t="shared" si="50"/>
+        <v>500000000</v>
+      </c>
+      <c r="T157" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U157" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W157" s="1">
         <f t="shared" si="49"/>
-        <v>500000000</v>
-      </c>
-      <c r="T157" s="1">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U157" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W157" s="1">
-        <f t="shared" si="48"/>
         <v>242500000</v>
       </c>
     </row>
@@ -23121,31 +23238,31 @@
         <v>0</v>
       </c>
       <c r="P158" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>500000</v>
       </c>
       <c r="Q158" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3000000</v>
       </c>
       <c r="R158" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="S158" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="T158" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U158" s="1">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="S158" s="1">
+      <c r="W158" s="1">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="T158" s="1">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U158" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W158" s="1">
-        <f t="shared" si="48"/>
         <v>583333.33333333337</v>
       </c>
       <c r="X158" s="1">
@@ -23205,31 +23322,31 @@
         <v>0</v>
       </c>
       <c r="P159" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1000000</v>
       </c>
       <c r="Q159" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2000000</v>
       </c>
       <c r="R159" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="S159" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="T159" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U159" s="1">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="S159" s="1">
+      <c r="W159" s="1">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="T159" s="1">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U159" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W159" s="1">
-        <f t="shared" si="48"/>
         <v>500000</v>
       </c>
     </row>
@@ -23277,31 +23394,31 @@
         <v>0</v>
       </c>
       <c r="P160" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>100000</v>
       </c>
       <c r="Q160" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="R160" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="S160" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="T160" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U160" s="1">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="S160" s="1">
+      <c r="W160" s="1">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="T160" s="1">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U160" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W160" s="1">
-        <f t="shared" si="48"/>
         <v>16666.666666666668</v>
       </c>
       <c r="X160" s="1">
@@ -23361,31 +23478,31 @@
         <v>0</v>
       </c>
       <c r="P161" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>100000</v>
       </c>
       <c r="Q161" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="R161" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="S161" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="T161" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U161" s="1">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="S161" s="1">
+      <c r="W161" s="1">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="T161" s="1">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U161" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W161" s="1">
-        <f t="shared" si="48"/>
         <v>16666.666666666668</v>
       </c>
     </row>
